--- a/biology/Médecine/Ernst_Schering/Ernst_Schering.xlsx
+++ b/biology/Médecine/Ernst_Schering/Ernst_Schering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Christian Friedrich Schering né le 31 mai 1824 à Prenzlau et mort le 27 décembre 1889 à Berlin est un pharmacien et industriel allemand, créateur de la Compagnie Pharmaceutique Schering. L'entreprise princeps est scindée en deux entités distinctes, à la fin de la Seconde Guerre mondiale, en guise de réparation des actifs américains saisis par le régime nazi durant le conflit mondial, donnant ainsi naissance à deux grands laboratoires pharmaceutiques indépendants l'un de l'autre : Schering AG restant en République Fédérale Allemande, et Schering-Plough continuant indépendamment ses activités aux États-Unis d'Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schering est né le 31 mai 1824 à Prenzlau. Il ouvre une pharmacie, en 1851, à Chausseestraße, au nord de Berlin[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schering est né le 31 mai 1824 à Prenzlau. Il ouvre une pharmacie, en 1851, à Chausseestraße, au nord de Berlin,.
 Il est mort le 27 décembre 1889 et est inhumé dans le cimetière protestant de la congrégation de l'Église de Jérusalem et à la nouvelle église à Berlin-Kreuzberg, au sud de Hallesches Tor.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Legs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ernst Schering Research Foundation Workshop</t>
         </is>
